--- a/数据整理/stocks/A股/深证主板/002600-领益智造.xlsx
+++ b/数据整理/stocks/A股/深证主板/002600-领益智造.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100039</t>
+          <t>180031</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国通胀通缩主题混合</t>
+          <t>银华中小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>80.55</t>
+          <t>76.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1043</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009986</t>
+          <t>009914</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘创新领航混合A</t>
+          <t>富国成长动力混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>81.97</t>
+          <t>36.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7431</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009987</t>
+          <t>340008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘创新领航混合C</t>
+          <t>兴全有机增长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>81.97</t>
+          <t>33.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2746</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011241</t>
+          <t>001576</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东吴价值成长双动力混合C</t>
+          <t>国泰智能装备股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.94</t>
+          <t>17.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0809</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>180031</t>
+          <t>007066</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银华中小盘精选混合</t>
+          <t>浦银安盛先进制造混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.05</t>
+          <t>9.28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7220</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>340008</t>
+          <t>001210</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>兴全有机增长混合</t>
+          <t>天弘互联网灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>79.15</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7148</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000940</t>
+          <t>540010</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国中小盘精选混合</t>
+          <t>汇丰晋信科技先锋股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84.96</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5614</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>610004</t>
+          <t>009986</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>信达澳银中小盘混合</t>
+          <t>天弘创新领航混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5006</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>540010</t>
+          <t>519020</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇丰晋信科技先锋股票</t>
+          <t>国泰金泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.59</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4214</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -744,25 +844,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000458</t>
+          <t>920003</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>英大领先回报混合</t>
+          <t>中金新锐股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.13</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3888</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006502</t>
+          <t>000940</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>财通集成电路产业股票A</t>
+          <t>富国中小盘精选混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>95.10</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3726</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -800,25 +920,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006503</t>
+          <t>880007</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>财通集成电路产业股票C</t>
+          <t>招商资管智远成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>95.10</t>
+          <t>11.12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3425</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
     </row>
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000965</t>
+          <t>163503</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇丰晋信新动力混合</t>
+          <t>天治核心成长混合(LOF)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3335</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>610006</t>
+          <t>007067</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>信达澳银产业升级混合</t>
+          <t>浦银安盛先进制造混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3135</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>570007</t>
+          <t>550001</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>诺德优选30混合</t>
+          <t>信诚四季红混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>90.89</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3100</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001210</t>
+          <t>002376</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天弘互联网灵活配置混合</t>
+          <t>国寿安保核心产业灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>550001</t>
+          <t>005305</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>信诚四季红混合</t>
+          <t>长信合利混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>86.26</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>33.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001322</t>
+          <t>005970</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>东吴新趋势价值线灵活配置混合</t>
+          <t>国泰消费优选股票</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001323</t>
+          <t>100039</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东吴移动互联灵活配置混合A</t>
+          <t>富国通胀通缩主题混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1034,15 +1234,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>89.94</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>3.06</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>163503</t>
+          <t>001322</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天治核心成长混合(LOF)</t>
+          <t>东吴新趋势价值线灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>005970</t>
+          <t>006502</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国泰消费优选股票</t>
+          <t>财通集成电路产业股票A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001576</t>
+          <t>006209</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国泰智能装备股票A</t>
+          <t>中信保诚新蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>87.60</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1136,26 +1376,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>002170</t>
+          <t>000965</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东吴移动互联灵活配置混合C</t>
+          <t>汇丰晋信新动力混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1164,26 +1414,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>002191</t>
+          <t>920923</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>农银汇理物联网主题灵活配置混合</t>
+          <t>中金新锐股票C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>88.27</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1192,25 +1452,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>002376</t>
+          <t>005175</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国寿安保核心产业灵活配置混合</t>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>88.45</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1220,25 +1490,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>011322</t>
+          <t>610006</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>国泰智能装备股票C</t>
+          <t>信达澳银产业升级混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>87.60</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1248,26 +1528,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>920003</t>
+          <t>009987</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中金新锐股票A</t>
+          <t>天弘创新领航混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1276,26 +1566,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>920923</t>
+          <t>881007</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中金新锐股票C</t>
+          <t>招商资管智远成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -1304,26 +1604,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>005305</t>
+          <t>610004</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>长信合利混合A</t>
+          <t>信达澳银中小盘混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>33.21</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>8</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1332,26 +1642,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>005306</t>
+          <t>001323</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>长信合利混合C</t>
+          <t>东吴移动互联灵活配置混合A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>33.21</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>8</v>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1360,26 +1680,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>005175</t>
+          <t>006503</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>国寿安保消费新蓝海灵活配置混合</t>
+          <t>财通集成电路产业股票C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>88.67</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>5</v>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1388,26 +1718,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>006209</t>
+          <t>570007</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中信保诚新蓝筹灵活配置混合</t>
+          <t>诺德优选30混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>89.57</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2</v>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1416,26 +1756,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>168401</t>
+          <t>002191</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
+          <t>农银汇理物联网主题灵活配置混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>90.18</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>8</v>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1444,26 +1794,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>519020</t>
+          <t>005306</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合A</t>
+          <t>长信合利混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>4</v>
+          <t>33.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1472,26 +1832,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>519022</t>
+          <t>168401</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合C</t>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>4</v>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -1500,26 +1870,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>880007</t>
+          <t>000458</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>招商资管智远成长灵活配置混合A</t>
+          <t>英大领先回报混合</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>72.73</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>8</v>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1528,26 +1908,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>881007</t>
+          <t>519022</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>招商资管智远成长灵活配置混合C</t>
+          <t>国泰金泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>72.73</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>8</v>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -1556,26 +1946,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>007066</t>
+          <t>011322</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>浦银安盛先进制造混合A</t>
+          <t>国泰智能装备股票C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>7.78</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>5</v>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -1584,26 +1984,34 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>007067</t>
+          <t>011241</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>浦银安盛先进制造混合C</t>
+          <t>东吴价值成长双动力混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>7.78</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>5</v>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -1612,26 +2020,34 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>009914</t>
+          <t>002170</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>富国成长动力混合</t>
+          <t>东吴移动互联灵活配置混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>88.60</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>6</v>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1645,7 +2061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1666,15 +2082,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1686,26 +2112,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009428</t>
+          <t>001576</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏扬景沣六个月持有期混合A</t>
+          <t>国泰智能装备股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.47</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8529</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1714,25 +2150,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009429</t>
+          <t>007066</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏扬景沣六个月持有期混合C</t>
+          <t>浦银安盛先进制造混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.47</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4747</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1742,26 +2188,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006209</t>
+          <t>007067</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信保诚新蓝筹灵活配置混合</t>
+          <t>浦银安盛先进制造混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>83.91</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2934</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1770,26 +2226,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005970</t>
+          <t>519020</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰消费优选股票</t>
+          <t>国泰金泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1798,26 +2264,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007066</t>
+          <t>005970</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浦银安盛先进制造混合A</t>
+          <t>国泰消费优选股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1826,25 +2302,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007067</t>
+          <t>580002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浦银安盛先进制造混合C</t>
+          <t>东吴价值成长双动力混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1864,15 +2350,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>93.62</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>4.85</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1882,26 +2378,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001323</t>
+          <t>009428</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东吴移动互联灵活配置混合A</t>
+          <t>鹏扬景沣六个月持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1910,26 +2416,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002170</t>
+          <t>006209</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东吴移动互联灵活配置混合C</t>
+          <t>中信保诚新蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1938,26 +2454,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001576</t>
+          <t>001323</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰智能装备股票A</t>
+          <t>东吴移动互联灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1966,26 +2492,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011322</t>
+          <t>009429</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰智能装备股票C</t>
+          <t>鹏扬景沣六个月持有期混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1994,25 +2530,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>519020</t>
+          <t>519022</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合A</t>
+          <t>国泰金泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>92.17</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>8.29</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2022,26 +2568,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>519022</t>
+          <t>011322</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合C</t>
+          <t>国泰智能装备股票C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2050,26 +2606,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>580002</t>
+          <t>002170</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东吴价值成长双动力混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>80.29</t>
-        </is>
-      </c>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -2086,17 +2646,21 @@
           <t>东吴价值成长双动力混合C</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>80.29</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2.78</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002600-领益智造.xlsx
+++ b/数据整理/stocks/A股/深证主板/002600-领益智造.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2614,7 +2615,6 @@
           <t>东吴移动互联灵活配置混合C</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>93.58</t>
@@ -2646,7 +2646,6 @@
           <t>东吴价值成长双动力混合C</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>80.29</t>
@@ -2662,6 +2661,290 @@
       </c>
       <c r="H16" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5301</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8958</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002600-领益智造.xlsx
+++ b/数据整理/stocks/A股/深证主板/002600-领益智造.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2950,4 +2951,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002600-领益智造.xlsx
+++ b/数据整理/stocks/A股/深证主板/002600-领益智造.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2959,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2970,17 +2971,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2990,14 +3011,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.8</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1243</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3006,14 +3049,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.4</v>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5718</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3022,13 +3087,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1961</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>41</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>14.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002600-领益智造.xlsx
+++ b/数据整理/stocks/A股/深证主板/002600-领益智造.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3168,7 +3169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3179,17 +3180,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3199,14 +3220,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.01</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0194</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3215,14 +3258,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.8</v>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4435</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3231,14 +3296,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.4</v>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3247,13 +3334,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014331</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF联接A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014332</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF联接C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>41</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>14.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002600-领益智造.xlsx
+++ b/数据整理/stocks/A股/深证主板/002600-领益智造.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3453,7 +3454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3464,17 +3465,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3484,14 +3505,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.75</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9930</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3500,14 +3543,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.01</v>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3933</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3516,14 +3581,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.8</v>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3532,14 +3619,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="6">
@@ -3548,13 +3757,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>41</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>14.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002600-领益智造.xlsx
+++ b/数据整理/stocks/A股/深证主板/002600-领益智造.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.01</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.8</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>41</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>14.03</v>
       </c>
     </row>
@@ -649,22 +666,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.21</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.13</t>
+          <t>99.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9930</t>
+          <t>0.7620</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -687,22 +704,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.89</t>
+          <t>98.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3933</t>
+          <t>0.3059</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -725,22 +742,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.93</t>
+          <t>98.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1180</t>
+          <t>0.0940</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -758,27 +775,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+          <t>富国中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.13</t>
+          <t>98.40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1055</t>
+          <t>0.0846</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -791,6 +808,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9930</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3933</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1074,7 +1299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1282,7 +1507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1566,7 +1791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2178,7 +2403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002600-领益智造.xlsx
+++ b/数据整理/stocks/A股/深证主板/002600-领益智造.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>2.01</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2.8</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>41</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>14.03</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>20.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.35</t>
+          <t>99.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7620</t>
+          <t>0.7311</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.92</t>
+          <t>98.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3059</t>
+          <t>0.2762</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159715</t>
+          <t>159713</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达中证稀土产业ETF</t>
+          <t>富国中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.35</t>
+          <t>99.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0940</t>
+          <t>0.0917</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,112 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>159713</t>
+          <t>159715</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国中证稀土产业ETF</t>
+          <t>易方达中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.40</t>
+          <t>98.82</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0846</t>
+          <t>0.0874</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015061</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015062</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -874,22 +967,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.21</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.13</t>
+          <t>99.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9930</t>
+          <t>0.7620</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -912,22 +1005,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.89</t>
+          <t>98.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3933</t>
+          <t>0.3059</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -950,22 +1043,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.93</t>
+          <t>98.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1180</t>
+          <t>0.0940</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -983,27 +1076,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+          <t>富国中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.13</t>
+          <t>98.40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1055</t>
+          <t>0.0846</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1016,6 +1109,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9930</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3933</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1299,7 +1600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1507,7 +1808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1791,7 +2092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2403,7 +2704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
